--- a/biology/Zoologie/Chasmistes_muriei/Chasmistes_muriei.xlsx
+++ b/biology/Zoologie/Chasmistes_muriei/Chasmistes_muriei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Meunier de la rivière Snake, Chasmistes muriei, est une espèce de poissons à nageoires rayonnées de la famille des Catostomidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était endémique de la rivière Snake en aval du barrage du lac Jackson dans le Wyoming. Il est maintenant considéré comme une espèce éteinte.
 Cette espèce n'est connue que par un seul spécimen.
